--- a/results/ENRON/results.xlsx
+++ b/results/ENRON/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-riaktu\IdeaProjects\graph2vec\results\ENRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF356EF9-330D-47F7-9C6B-261045CEF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC051602-4491-4140-86FC-0BB2FB32F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-28920" yWindow="4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dists" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>34, 42, 45, 56, 62, 73, 81</t>
+  </si>
+  <si>
+    <t>euclidian</t>
+  </si>
+  <si>
+    <t>cosine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +512,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -638,274 +645,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.73390401915056902</c:v>
+                  <c:v>0.71355173131865102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91749179064722897</c:v>
+                  <c:v>0.164714888917876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23698307360736701</c:v>
+                  <c:v>7.3199247120829897E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23590825938342799</c:v>
+                  <c:v>0.13650044778927301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.230434317397814</c:v>
+                  <c:v>0.100503770495613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3631403162136695E-2</c:v>
+                  <c:v>0.15633652760213701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.206083256204947</c:v>
+                  <c:v>0.23204969759327901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.118581240518899</c:v>
+                  <c:v>0.23384158439573199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20965494679934499</c:v>
+                  <c:v>0.13872386106686699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10748237447488</c:v>
+                  <c:v>0.21275296046060599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6712351705579607E-2</c:v>
+                  <c:v>0.17446408585460099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7451961772577996E-2</c:v>
+                  <c:v>0.16530175603491701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1369184659730499E-2</c:v>
+                  <c:v>0.27434003566409498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16543742858053201</c:v>
+                  <c:v>0.146347889086409</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12767980377537999</c:v>
+                  <c:v>9.5919119076401493E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9516856460942101E-2</c:v>
+                  <c:v>0.101960903080621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15452310963180299</c:v>
+                  <c:v>0.121196616107175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7845209478185304E-2</c:v>
+                  <c:v>0.21476508126153701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21764646281702099</c:v>
+                  <c:v>7.9435733658777805E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.226150238104527</c:v>
+                  <c:v>0.24432714178713599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14553052746744699</c:v>
+                  <c:v>0.15695002078846601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.170032844215428</c:v>
+                  <c:v>0.23446899654183601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.115638530061092</c:v>
+                  <c:v>0.35054175902873103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.110864775750421</c:v>
+                  <c:v>0.25574566201936499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17634862337210899</c:v>
+                  <c:v>7.7979122206536106E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4780213700053999E-2</c:v>
+                  <c:v>8.5710541442586705E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4667061185786601E-2</c:v>
+                  <c:v>0.16289646336392499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.119007796458123</c:v>
+                  <c:v>0.207958522868019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.69232718207575E-2</c:v>
+                  <c:v>0.165180117458367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.3479422133058598E-2</c:v>
+                  <c:v>0.21093665216606999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.8559151183313802E-2</c:v>
+                  <c:v>0.213665469746639</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.2538056484948797E-2</c:v>
+                  <c:v>0.24650986478154699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.13818364084197E-2</c:v>
+                  <c:v>0.36022521226573401</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6333878623988605E-2</c:v>
+                  <c:v>0.34331425108354802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16425240943739899</c:v>
+                  <c:v>0.204279823343058</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10028530403847501</c:v>
+                  <c:v>0.254235027408936</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8872936515280096E-2</c:v>
+                  <c:v>0.19472851670220501</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.33410668510359698</c:v>
+                  <c:v>0.14811214426038399</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26845401514139</c:v>
+                  <c:v>0.14202747893953499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13017119097858901</c:v>
+                  <c:v>8.2099054151338405E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.178619458645732</c:v>
+                  <c:v>0.182075920117382</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.4105893064907095E-2</c:v>
+                  <c:v>0.11255818716702</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21310095404107199</c:v>
+                  <c:v>0.16159105654610001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12070684821082001</c:v>
+                  <c:v>7.13833284492945E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.207814701790695</c:v>
+                  <c:v>0.23389240669637701</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.14691004366596699</c:v>
+                  <c:v>0.14099224951834199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.7969763494775801E-2</c:v>
+                  <c:v>8.5163914970535007E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.4324421679982502E-2</c:v>
+                  <c:v>7.3149962013941305E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.17933725882596199</c:v>
+                  <c:v>0.15556852848900801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.129950928337566</c:v>
+                  <c:v>7.9063957780747596E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.29843790595310499</c:v>
+                  <c:v>0.26691002560925198</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.233996251291541</c:v>
+                  <c:v>0.118524112888083</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.4452658642559894E-2</c:v>
+                  <c:v>0.24684787754856599</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.7977816286750795E-2</c:v>
+                  <c:v>0.22705905247553501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.140867303328372</c:v>
+                  <c:v>0.26481560613723398</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.5701570971199394E-2</c:v>
+                  <c:v>0.20855779696382901</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.5707884131495105E-2</c:v>
+                  <c:v>0.27202855595721998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.5307582187252304E-2</c:v>
+                  <c:v>0.40006748184209801</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.107490787815972</c:v>
+                  <c:v>0.22544072612670399</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.10599927240937899</c:v>
+                  <c:v>0.267683111571762</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20398524180387001</c:v>
+                  <c:v>0.16566585055862901</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.26581700863313001</c:v>
+                  <c:v>0.39684714583952801</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.28569588286341002</c:v>
+                  <c:v>0.21195800666345799</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.0443211309405294E-2</c:v>
+                  <c:v>0.18737077638071301</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.1089836853227196E-2</c:v>
+                  <c:v>0.184372209104565</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.176391042759416</c:v>
+                  <c:v>9.2287626441224305E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.23067085951813199</c:v>
+                  <c:v>0.25991991654388102</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.24647416802743499</c:v>
+                  <c:v>7.3283357443144501E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.2284453209374</c:v>
+                  <c:v>0.169573346644253</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.213940037391117</c:v>
+                  <c:v>7.7596869359433301E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.12155915306058999</c:v>
+                  <c:v>0.26303425419773702</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.129530795666325</c:v>
+                  <c:v>8.7779112344331306E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.244878019717474</c:v>
+                  <c:v>0.326402134988732</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.4981666292612395E-2</c:v>
+                  <c:v>0.15597489001654999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.167847376395724</c:v>
+                  <c:v>8.7864419595744703E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.12836723357006499</c:v>
+                  <c:v>0.27354994855738002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.120062110169898</c:v>
+                  <c:v>0.10185796406027001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.13113977646552499</c:v>
+                  <c:v>0.19363431132248601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.15768653006042599</c:v>
+                  <c:v>0.37173660469710901</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.22182495647088499</c:v>
+                  <c:v>0.57010850414769898</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.179744898247266</c:v>
+                  <c:v>0.67056357447745996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.12308544216485801</c:v>
+                  <c:v>0.776064641961973</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7579389827352505E-2</c:v>
+                  <c:v>0.783797180220971</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.7788500508111401E-2</c:v>
+                  <c:v>0.76666839316897395</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.103287770932517</c:v>
+                  <c:v>0.83906119611507002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.23657659621031801</c:v>
+                  <c:v>0.53998538535505103</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.0513011794015201E-2</c:v>
+                  <c:v>0.64855602057149697</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.22912736258709901</c:v>
+                  <c:v>0.78823367382579002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.9491329097478206E-2</c:v>
+                  <c:v>0.79447662245678896</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.0031061629246702E-2</c:v>
+                  <c:v>0.81106698529501198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,6 +921,521 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C3A0-476B-A0D9-8FFDB8299FEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="750685439"/>
+        <c:axId val="750679199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750685439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750679199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="750679199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750685439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dists!$C$2:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>7.1851670449153193E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1510616833862999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4750772722516002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5254161263541502E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3201209780039298E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.09502472164546E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3001915727189899E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.86844705329758E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0014472334340902E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9191897606465301E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5185827750445699E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0548547108781802E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1208829645089598E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4060905625662402E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.81225606512758E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6496651642164901E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5398208818905302E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8336593379101301E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4274365672229898E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2220680668761902E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2420726750421701E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3097645457255101E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6192642325811801E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2937804212684798E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2442456998701399E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6337574012286198E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6025677469619902E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0007436600532002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2076296985726802E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4368275015349498E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.64293104060264E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6001192723581401E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0441621674713801E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7527593669138799E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.28946238281746E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.81396770668829E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3464636316801102E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9698095871011302E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8086806266098799E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7474838926296796E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7421193451637703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3337739948251502E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.4181419303647102E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5886958311264201E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7407158193611899E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3171204998971799E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9857409870931396E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6645609577740101E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0066753285475901E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.37871618799268E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.88180704991236E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0615646165500499E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.79718347626911E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6091991339371999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6813021979031899E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7228404676877798E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6723377019038899E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9815657841368798E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2414830827602798E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1989658668917201E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.28538950080981E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.95366909877647E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5394558928025701E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8711591156159698E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1093188607773598E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.9752195893019097E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0865871762563099E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.74362902501967E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.85122458746678E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2653152442251301E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3033052989900301E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6596003823515799E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0246635329499494E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8934270879378199E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1094038533216999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.2724874725182903E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.5622343207760698E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2038134770547801E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.5943810654600591E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.91705396754525E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9580915191831302E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21589138034976699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24394845162360801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.16613052630934499</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.93861472407733804</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6036647847956401E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.3573787148196498E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.27495832542979198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.323231497207975</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48318291966125299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD5F-48EC-B8E9-7053DEF4C6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1121,7 +1643,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1670,6 +2748,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37257342-24A4-4A09-8209-DF48EBAE8F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1974,741 +3090,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.73390401915056902</v>
+      <c r="B2" s="1">
+        <v>0.71355173131865102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.1851670449153193E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.91749179064722897</v>
+      <c r="B3" s="1">
+        <v>0.164714888917876</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.1510616833862999E-3</v>
       </c>
       <c r="AD3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.23698307360736701</v>
+      <c r="B4" s="1">
+        <v>7.3199247120829897E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.4750772722516002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.23590825938342799</v>
+      <c r="B5" s="1">
+        <v>0.13650044778927301</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.5254161263541502E-3</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.230434317397814</v>
+      <c r="B6" s="1">
+        <v>0.100503770495613</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.3201209780039298E-3</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>9.3631403162136695E-2</v>
+      <c r="B7" s="1">
+        <v>0.15633652760213701</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.09502472164546E-3</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.206083256204947</v>
+      <c r="B8" s="1">
+        <v>0.23204969759327901</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.3001915727189899E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.118581240518899</v>
+      <c r="B9" s="1">
+        <v>0.23384158439573199</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.86844705329758E-3</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.20965494679934499</v>
+      <c r="B10" s="1">
+        <v>0.13872386106686699</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0014472334340902E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.10748237447488</v>
+      <c r="B11" s="1">
+        <v>0.21275296046060599</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9191897606465301E-3</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>7.6712351705579607E-2</v>
+      <c r="B12" s="1">
+        <v>0.17446408585460099</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.5185827750445699E-3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>8.7451961772577996E-2</v>
+      <c r="B13" s="1">
+        <v>0.16530175603491701</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.0548547108781802E-3</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>9.1369184659730499E-2</v>
+      <c r="B14" s="1">
+        <v>0.27434003566409498</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.1208829645089598E-3</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.16543742858053201</v>
+      <c r="B15" s="1">
+        <v>0.146347889086409</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4060905625662402E-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.12767980377537999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="B16" s="1">
+        <v>9.5919119076401493E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.81225606512758E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>7.9516856460942101E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="B17" s="1">
+        <v>0.101960903080621</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.6496651642164901E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.15452310963180299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="B18" s="1">
+        <v>0.121196616107175</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.5398208818905302E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.7845209478185304E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="B19" s="1">
+        <v>0.21476508126153701</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.8336593379101301E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.21764646281702099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="B20" s="1">
+        <v>7.9435733658777805E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.4274365672229898E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.226150238104527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="B21" s="1">
+        <v>0.24432714178713599</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.2220680668761902E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.14553052746744699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="B22" s="1">
+        <v>0.15695002078846601</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.2420726750421701E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.170032844215428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="B23" s="1">
+        <v>0.23446899654183601</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.3097645457255101E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0.115638530061092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B24" s="1">
+        <v>0.35054175902873103</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.6192642325811801E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.110864775750421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="B25" s="1">
+        <v>0.25574566201936499</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.2937804212684798E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.17634862337210899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="B26" s="1">
+        <v>7.7979122206536106E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.2442456998701399E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>7.4780213700053999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="B27" s="1">
+        <v>8.5710541442586705E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.6337574012286198E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>7.4667061185786601E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="B28" s="1">
+        <v>0.16289646336392499</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.6025677469619902E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0.119007796458123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="B29" s="1">
+        <v>0.207958522868019</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.0007436600532002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>8.69232718207575E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="B30" s="1">
+        <v>0.165180117458367</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.2076296985726802E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>9.3479422133058598E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="B31" s="1">
+        <v>0.21093665216606999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.4368275015349498E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>7.8559151183313802E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="B32" s="1">
+        <v>0.213665469746639</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.64293104060264E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>9.2538056484948797E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="B33" s="1">
+        <v>0.24650986478154699</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.6001192723581401E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>8.13818364084197E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="B34" s="1">
+        <v>0.36022521226573401</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.0441621674713801E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>7.6333878623988605E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="B35" s="1">
+        <v>0.34331425108354802</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.7527593669138799E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.16425240943739899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="B36" s="1">
+        <v>0.204279823343058</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.28946238281746E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.10028530403847501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="B37" s="1">
+        <v>0.254235027408936</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.81396770668829E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>8.8872936515280096E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="B38" s="1">
+        <v>0.19472851670220501</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.3464636316801102E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.33410668510359698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="B39" s="1">
+        <v>0.14811214426038399</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.9698095871011302E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.26845401514139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="B40" s="1">
+        <v>0.14202747893953499</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.8086806266098799E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0.13017119097858901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="B41" s="1">
+        <v>8.2099054151338405E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.7474838926296796E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0.178619458645732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="B42" s="1">
+        <v>0.182075920117382</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.7421193451637703E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>8.4105893064907095E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="B43" s="1">
+        <v>0.11255818716702</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.3337739948251502E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0.21310095404107199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="B44" s="1">
+        <v>0.16159105654610001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.4181419303647102E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0.12070684821082001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="B45" s="1">
+        <v>7.13833284492945E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.5886958311264201E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0.207814701790695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="B46" s="1">
+        <v>0.23389240669637701</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.7407158193611899E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0.14691004366596699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="B47" s="1">
+        <v>0.14099224951834199</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.3171204998971799E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>7.7969763494775801E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="B48" s="1">
+        <v>8.5163914970535007E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.9857409870931396E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>7.4324421679982502E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="B49" s="1">
+        <v>7.3149962013941305E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.6645609577740101E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0.17933725882596199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="B50" s="1">
+        <v>0.15556852848900801</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.0066753285475901E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0.129950928337566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="B51" s="1">
+        <v>7.9063957780747596E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.37871618799268E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0.29843790595310499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="B52" s="1">
+        <v>0.26691002560925198</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.88180704991236E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0.233996251291541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="B53" s="1">
+        <v>0.118524112888083</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.0615646165500499E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>8.4452658642559894E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="B54" s="1">
+        <v>0.24684787754856599</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.79718347626911E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>7.7977816286750795E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="B55" s="1">
+        <v>0.22705905247553501</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.6091991339371999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0.140867303328372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="B56" s="1">
+        <v>0.26481560613723398</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.6813021979031899E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>7.5701570971199394E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="B57" s="1">
+        <v>0.20855779696382901</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.7228404676877798E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>8.5707884131495105E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="B58" s="1">
+        <v>0.27202855595721998</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.6723377019038899E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>8.5307582187252304E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="B59" s="1">
+        <v>0.40006748184209801</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.9815657841368798E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.107490787815972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="B60" s="1">
+        <v>0.22544072612670399</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.2414830827602798E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0.10599927240937899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="B61" s="1">
+        <v>0.267683111571762</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.1989658668917201E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0.20398524180387001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="B62" s="1">
+        <v>0.16566585055862901</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.28538950080981E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0.26581700863313001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="B63" s="1">
+        <v>0.39684714583952801</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.95366909877647E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0.28569588286341002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="B64" s="1">
+        <v>0.21195800666345799</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3.5394558928025701E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>8.0443211309405294E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="B65" s="1">
+        <v>0.18737077638071301</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2.8711591156159698E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>8.1089836853227196E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="B66" s="1">
+        <v>0.184372209104565</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.1093188607773598E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>0.176391042759416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="B67" s="1">
+        <v>9.2287626441224305E-2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.9752195893019097E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>0.23067085951813199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
+      <c r="B68" s="1">
+        <v>0.25991991654388102</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.0865871762563099E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0.24647416802743499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="B69" s="1">
+        <v>7.3283357443144501E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.74362902501967E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>0.2284453209374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
+      <c r="B70" s="1">
+        <v>0.169573346644253</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.85122458746678E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>0.213940037391117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="B71" s="1">
+        <v>7.7596869359433301E-2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3.2653152442251301E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>0.12155915306058999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="B72" s="1">
+        <v>0.26303425419773702</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.3033052989900301E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0.129530795666325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="B73" s="1">
+        <v>8.7779112344331306E-2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.6596003823515799E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>0.244878019717474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="B74" s="1">
+        <v>0.326402134988732</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8.0246635329499494E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>7.4981666292612395E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="B75" s="1">
+        <v>0.15597489001654999</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4.8934270879378199E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>0.167847376395724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="B76" s="1">
+        <v>8.7864419595744703E-2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4.1094038533216999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>0.12836723357006499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="B77" s="1">
+        <v>0.27354994855738002</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.2724874725182903E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0.120062110169898</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="B78" s="1">
+        <v>0.10185796406027001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4.5622343207760698E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>0.13113977646552499</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="B79" s="1">
+        <v>0.19363431132248601</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.2038134770547801E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>0.15768653006042599</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="B80" s="1">
+        <v>0.37173660469710901</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8.5943810654600591E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>0.22182495647088499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="B81" s="1">
+        <v>0.57010850414769898</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.91705396754525E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0.179744898247266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83">
+      <c r="B82" s="1">
+        <v>0.67056357447745996</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3.9580915191831302E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>0.12308544216485801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="B83" s="1">
+        <v>0.776064641961973</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.21589138034976699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>7.7579389827352505E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
+      <c r="B84" s="1">
+        <v>0.783797180220971</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.24394845162360801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>9.7788500508111401E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
+      <c r="B85" s="1">
+        <v>0.76666839316897395</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.16613052630934499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>0.103287770932517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
+      <c r="B86" s="1">
+        <v>0.83906119611507002</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.93861472407733804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>0.23657659621031801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
+      <c r="B87" s="1">
+        <v>0.53998538535505103</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.6036647847956401E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>7.0513011794015201E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="B88" s="1">
+        <v>0.64855602057149697</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.3573787148196498E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>0.22912736258709901</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
+      <c r="B89" s="1">
+        <v>0.78823367382579002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.27495832542979198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>7.9491329097478206E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
+      <c r="B90" s="1">
+        <v>0.79447662245678896</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.323231497207975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>7.0031061629246702E-2</v>
+      <c r="B91" s="1">
+        <v>0.81106698529501198</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.48318291966125299</v>
       </c>
     </row>
   </sheetData>
